--- a/ITS/Pogramm.xlsx
+++ b/ITS/Pogramm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSZIMT-repo-ITA12_aps\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426CBD9-AF23-46D1-9A74-9F914DE0CA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8483032E-4A11-4E1E-AF5F-FF7A742C9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="27240" windowHeight="17265" xr2:uid="{008D81A1-D6D3-47A6-9258-E35815D8525B}"/>
   </bookViews>
@@ -205,9 +205,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +533,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="232" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B1" sqref="B1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,86 +569,86 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
